--- a/ExcelFiles/SuiteA.xlsx
+++ b/ExcelFiles/SuiteA.xlsx
@@ -4,84 +4,122 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="Endpoints" sheetId="2" r:id="rId2"/>
-    <sheet name="Validations" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
   <si>
     <t>TestCases</t>
   </si>
   <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Runmode</t>
   </si>
   <si>
-    <t>/landlords</t>
-  </si>
-  <si>
-    <t>getTest</t>
-  </si>
-  <si>
-    <t>putTest</t>
-  </si>
-  <si>
-    <t>updateTest</t>
-  </si>
-  <si>
-    <t>deleteTest</t>
-  </si>
-  <si>
-    <t>TestID</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Endpoint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>JSONSchema</t>
-  </si>
-  <si>
-    <t>TC1</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>HTTPresp</t>
-  </si>
-  <si>
-    <t>/PAYMENT</t>
-  </si>
-  <si>
-    <t>/RATE</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>postTest</t>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Col1</t>
+  </si>
+  <si>
+    <t>Col2</t>
+  </si>
+  <si>
+    <t>Col3</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>Col4</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>C45</t>
+  </si>
+  <si>
+    <t>C46</t>
+  </si>
+  <si>
+    <t>Col5</t>
+  </si>
+  <si>
+    <t>C53</t>
+  </si>
+  <si>
+    <t>Col6</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C44</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C36</t>
   </si>
 </sst>
 </file>
@@ -461,49 +499,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -514,209 +563,333 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="5"/>
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
